--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H2">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>2741.726666210794</v>
+        <v>3724.25996636289</v>
       </c>
       <c r="R2">
-        <v>2741.726666210794</v>
+        <v>33518.33969726601</v>
       </c>
       <c r="S2">
-        <v>0.0900175218671118</v>
+        <v>0.1017581015731609</v>
       </c>
       <c r="T2">
-        <v>0.0900175218671118</v>
+        <v>0.101758101573161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H3">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>5047.861188610097</v>
+        <v>6135.398659190388</v>
       </c>
       <c r="R3">
-        <v>5047.861188610097</v>
+        <v>55218.58793271349</v>
       </c>
       <c r="S3">
-        <v>0.1657334994504951</v>
+        <v>0.1676377389313796</v>
       </c>
       <c r="T3">
-        <v>0.1657334994504951</v>
+        <v>0.1676377389313797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H4">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>1916.398596244988</v>
+        <v>2461.446849060551</v>
       </c>
       <c r="R4">
-        <v>1916.398596244988</v>
+        <v>22153.02164154496</v>
       </c>
       <c r="S4">
-        <v>0.06292000390469353</v>
+        <v>0.06725420909009514</v>
       </c>
       <c r="T4">
-        <v>0.06292000390469353</v>
+        <v>0.06725420909009516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H5">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>4349.508515149467</v>
+        <v>5430.289949375991</v>
       </c>
       <c r="R5">
-        <v>4349.508515149467</v>
+        <v>48872.60954438392</v>
       </c>
       <c r="S5">
-        <v>0.1428048910560341</v>
+        <v>0.1483720259141744</v>
       </c>
       <c r="T5">
-        <v>0.1428048910560341</v>
+        <v>0.1483720259141744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H6">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>1506.766174125636</v>
+        <v>1738.924029106987</v>
       </c>
       <c r="R6">
-        <v>1506.766174125636</v>
+        <v>15650.31626196288</v>
       </c>
       <c r="S6">
-        <v>0.04947078011078099</v>
+        <v>0.04751268965648708</v>
       </c>
       <c r="T6">
-        <v>0.04947078011078099</v>
+        <v>0.04751268965648708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H7">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>2774.144696630583</v>
+        <v>2864.728094434365</v>
       </c>
       <c r="R7">
-        <v>2774.144696630583</v>
+        <v>25782.55284990928</v>
       </c>
       <c r="S7">
-        <v>0.09108188426259271</v>
+        <v>0.07827307842251077</v>
       </c>
       <c r="T7">
-        <v>0.09108188426259271</v>
+        <v>0.07827307842251079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H8">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>1053.191996324915</v>
+        <v>1149.293849210311</v>
       </c>
       <c r="R8">
-        <v>1053.191996324915</v>
+        <v>10343.6446428928</v>
       </c>
       <c r="S8">
-        <v>0.03457884213179847</v>
+        <v>0.03140220105514418</v>
       </c>
       <c r="T8">
-        <v>0.03457884213179847</v>
+        <v>0.03140220105514419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H9">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>2390.352176774855</v>
+        <v>2535.500143189511</v>
       </c>
       <c r="R9">
-        <v>2390.352176774855</v>
+        <v>22819.5012887056</v>
       </c>
       <c r="S9">
-        <v>0.07848104699667588</v>
+        <v>0.06927757015883414</v>
       </c>
       <c r="T9">
-        <v>0.07848104699667588</v>
+        <v>0.06927757015883415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H10">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>1468.263454787326</v>
+        <v>1896.626439214392</v>
       </c>
       <c r="R10">
-        <v>1468.263454787326</v>
+        <v>17069.63795292953</v>
       </c>
       <c r="S10">
-        <v>0.04820664265218829</v>
+        <v>0.05182159881185779</v>
       </c>
       <c r="T10">
-        <v>0.04820664265218829</v>
+        <v>0.05182159881185779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H11">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>2703.256381978702</v>
+        <v>3124.529280243902</v>
       </c>
       <c r="R11">
-        <v>2703.256381978702</v>
+        <v>28120.76352219512</v>
       </c>
       <c r="S11">
-        <v>0.08875444933155437</v>
+        <v>0.08537163644295231</v>
       </c>
       <c r="T11">
-        <v>0.08875444933155437</v>
+        <v>0.08537163644295233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H12">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>1026.27955527056</v>
+        <v>1253.522905171521</v>
       </c>
       <c r="R12">
-        <v>1026.27955527056</v>
+        <v>11281.70614654368</v>
       </c>
       <c r="S12">
-        <v>0.03369524155958829</v>
+        <v>0.03425005565153889</v>
       </c>
       <c r="T12">
-        <v>0.03369524155958829</v>
+        <v>0.0342500556515389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H13">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>2329.270994729149</v>
+        <v>2765.44376160854</v>
       </c>
       <c r="R13">
-        <v>2329.270994729149</v>
+        <v>24888.99385447686</v>
       </c>
       <c r="S13">
-        <v>0.07647560396392185</v>
+        <v>0.07556032869086937</v>
       </c>
       <c r="T13">
-        <v>0.07647560396392185</v>
+        <v>0.07556032869086939</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H14">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>224.4566035297654</v>
+        <v>318.726593668456</v>
       </c>
       <c r="R14">
-        <v>224.4566035297654</v>
+        <v>2868.539343016104</v>
       </c>
       <c r="S14">
-        <v>0.007369453514628676</v>
+        <v>0.008708579257493779</v>
       </c>
       <c r="T14">
-        <v>0.007369453514628676</v>
+        <v>0.008708579257493779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H15">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>413.2526379994861</v>
+        <v>525.0747082920527</v>
       </c>
       <c r="R15">
-        <v>413.2526379994861</v>
+        <v>4725.672374628474</v>
       </c>
       <c r="S15">
-        <v>0.01356808424275664</v>
+        <v>0.01434663691108031</v>
       </c>
       <c r="T15">
-        <v>0.01356808424275664</v>
+        <v>0.01434663691108031</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H16">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>156.8895708035138</v>
+        <v>210.6535464180267</v>
       </c>
       <c r="R16">
-        <v>156.8895708035138</v>
+        <v>1895.88191776224</v>
       </c>
       <c r="S16">
-        <v>0.005151064307240201</v>
+        <v>0.005755695135881245</v>
       </c>
       <c r="T16">
-        <v>0.005151064307240201</v>
+        <v>0.005755695135881246</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H17">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>356.0806846159853</v>
+        <v>464.7306669858867</v>
       </c>
       <c r="R17">
-        <v>356.0806846159853</v>
+        <v>4182.57600287298</v>
       </c>
       <c r="S17">
-        <v>0.01169099064793908</v>
+        <v>0.01269785429653993</v>
       </c>
       <c r="T17">
-        <v>0.01169099064793908</v>
+        <v>0.01269785429653993</v>
       </c>
     </row>
   </sheetData>
